--- a/biology/Zoologie/Cissia_myncea/Cissia_myncea.xlsx
+++ b/biology/Zoologie/Cissia_myncea/Cissia_myncea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cissia myncea est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Cissia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia myncea a été décrit par Pieter Cramer en 1780 sous le nom de Papilio myncea[1].
-Noms vernaculaires
-Cissia myncea se nomme Myneca Satyr en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia myncea a été décrit par Pieter Cramer en 1780 sous le nom de Papilio myncea.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus marron avec un ocelle doublement pupillé d'argenté près de l'angle anal de l'aile postérieure[3].
-Le revers est beige zébré de deux bandes marron et d'une troisième submarginale qui porte un ocelle à l'apex des antérieures et une ligne d'ocelles aux postérieures dont deux, l'apical et l'anal sont noir pupillés d'argenté.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia myncea se nomme Myneca Satyr en anglais.
 </t>
         </is>
       </c>
@@ -573,13 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il vole toute l'année[3].
-Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus marron avec un ocelle doublement pupillé d'argenté près de l'angle anal de l'aile postérieure.
+Le revers est beige zébré de deux bandes marron et d'une troisième submarginale qui porte un ocelle à l'apex des antérieures et une ligne d'ocelles aux postérieures dont deux, l'apical et l'anal sont noir pupillés d'argenté.
+</t>
         </is>
       </c>
     </row>
@@ -604,16 +624,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cissia myncea est présent en Guyane, au Surinam, à Trinité-et-Tobago et au Brésil[3],[1].
-Biotope
-Il réside en forêt tropicale humide[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cissia myncea est présent en Guyane, au Surinam, à Trinité-et-Tobago et au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cissia_myncea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Cissia myncea, sur Wikimedia CommonsCissia myncea, sur Wikispecies
 </t>
